--- a/testTable.xlsx
+++ b/testTable.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Адрес</t>
   </si>
@@ -74,12 +74,40 @@
   </si>
   <si>
     <t>ДАТА</t>
+  </si>
+  <si>
+    <t>10.07.2021</t>
+  </si>
+  <si>
+    <t>DEVELOPER</t>
+  </si>
+  <si>
+    <t>Стартовая 27к2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Малыгина 22 к2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ул. Бойцовая 10к.4</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,19 +135,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -136,10 +164,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -174,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +325,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -306,13 +334,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -322,7 +350,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -331,7 +359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,7 +368,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,12 +378,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -386,7 +414,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -405,7 +433,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -417,8 +445,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -426,25 +454,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" customWidth="1"/>
-    <col min="13" max="13" width="38.7109375" customWidth="1"/>
-    <col min="14" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -509,7 +537,148 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>